--- a/documenten/Vergelijking HP Conduction en Eend.xlsx
+++ b/documenten/Vergelijking HP Conduction en Eend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://regiowf2-my.sharepoint.com/personal/r_wildenberg_hoorn_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{10A1D9F0-1EB6-48A2-8AC7-5DDB18A5BBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDA5D4C7-CFDA-4A54-A00C-F441024D92E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF47A11-1C3B-4873-86E0-546CCC7AB736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28F56FDB-C5E8-469E-8E79-94BE58279C53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Conduction</t>
   </si>
@@ -135,9 +135,6 @@
     <t xml:space="preserve">Getuigen uitnodigen via de mail. Dit is verplicht als je ook een melding wilt maken. </t>
   </si>
   <si>
-    <t xml:space="preserve">Getuigen uitnodigen via de mail. Dit kan ook later gedaan worden. </t>
-  </si>
-  <si>
     <t>Automatisch ingevuld welke locatie en ambtenaar door keuze voor plechtigheid. (Ook geen verdere mogelijkheden te zien of extra uitleg hierover)</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
   </si>
   <si>
     <t xml:space="preserve">Er is een checklist aan het einde van het proces. Hierin zijn geen deadlines aangegeven. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je kan een bestaand verzoek weer oppakken? Onduidelijk hoe. </t>
   </si>
   <si>
     <t>Volgorde</t>
@@ -193,12 +187,6 @@
     <t>Contactgegevens</t>
   </si>
   <si>
-    <t>Partner uitnodigen via e-mail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? </t>
-  </si>
-  <si>
     <t>Keuze voor een ceremonie: eenvoudig, gratis of flits, met informatie wat het betekent</t>
   </si>
   <si>
@@ -224,9 +212,6 @@
   </si>
   <si>
     <t>Je kan gekozen getuigen nog wijzigen.</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Betaling</t>
@@ -303,7 +288,19 @@
 9 ) Samenvatting</t>
   </si>
   <si>
-    <t>Inmiddels aangepast door Eend?</t>
+    <t>Je kan een bestaand verzoek oppakken via een linkje dat je in je e-mail krijgt als bevestiging.</t>
+  </si>
+  <si>
+    <t>Instemming intrekken is niet mogelijk.</t>
+  </si>
+  <si>
+    <t>Mogelijk om linkje te plaatsen in de bevestigingsmail en zo het koppel te leiden naar de juiste plek op utrecht.nl</t>
+  </si>
+  <si>
+    <t>Het is mogelijk om 'op de bank' meteen in te loggen, of een mailtje te versturen.</t>
+  </si>
+  <si>
+    <t>Getuigen uitnodigen via de mail.</t>
   </si>
 </sst>
 </file>
@@ -335,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +348,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -414,14 +405,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,23 +734,23 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -767,13 +761,13 @@
     </row>
     <row r="2" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -789,10 +783,10 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>24</v>
@@ -807,31 +801,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -842,7 +836,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -853,17 +847,15 @@
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="C10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
@@ -888,8 +880,8 @@
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>51</v>
+      <c r="C13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -903,13 +895,13 @@
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -918,15 +910,15 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
@@ -934,34 +926,32 @@
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="C18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,8 +977,8 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
+      <c r="C23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,7 +992,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>29</v>
@@ -1013,42 +1003,42 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1057,7 +1047,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1066,45 +1056,45 @@
         <v>16</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>73</v>
+      <c r="C32" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -1115,13 +1105,13 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1130,13 +1120,13 @@
         <v>14</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>18</v>

--- a/documenten/Vergelijking HP Conduction en Eend.xlsx
+++ b/documenten/Vergelijking HP Conduction en Eend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://regiowf2-my.sharepoint.com/personal/r_wildenberg_hoorn_nl/Documents/Bureaublad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenduchatinier/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF47A11-1C3B-4873-86E0-546CCC7AB736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A67B2E-5D68-F545-923B-3DCCD8C22B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28F56FDB-C5E8-469E-8E79-94BE58279C53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{28F56FDB-C5E8-469E-8E79-94BE58279C53}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>Conduction</t>
   </si>
@@ -135,6 +135,9 @@
     <t xml:space="preserve">Getuigen uitnodigen via de mail. Dit is verplicht als je ook een melding wilt maken. </t>
   </si>
   <si>
+    <t xml:space="preserve">Getuigen uitnodigen via de mail. Dit kan ook later gedaan worden. </t>
+  </si>
+  <si>
     <t>Automatisch ingevuld welke locatie en ambtenaar door keuze voor plechtigheid. (Ook geen verdere mogelijkheden te zien of extra uitleg hierover)</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">Er is een checklist aan het einde van het proces. Hierin zijn geen deadlines aangegeven. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je kan een bestaand verzoek weer oppakken? Onduidelijk hoe. </t>
   </si>
   <si>
     <t>Volgorde</t>
@@ -187,6 +193,12 @@
     <t>Contactgegevens</t>
   </si>
   <si>
+    <t>Partner uitnodigen via e-mail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? </t>
+  </si>
+  <si>
     <t>Keuze voor een ceremonie: eenvoudig, gratis of flits, met informatie wat het betekent</t>
   </si>
   <si>
@@ -212,6 +224,9 @@
   </si>
   <si>
     <t>Je kan gekozen getuigen nog wijzigen.</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>Betaling</t>
@@ -291,16 +306,16 @@
     <t>Je kan een bestaand verzoek oppakken via een linkje dat je in je e-mail krijgt als bevestiging.</t>
   </si>
   <si>
+    <t>Inmiddels aangepast door Eend. Het is mogelijk om 'op de bank' meteen in te loggen, of een mailtje te versturen.</t>
+  </si>
+  <si>
+    <t>Inmiddels aangepast door Eend. Getuigen uitnodigen is een stap in het proces geworden.</t>
+  </si>
+  <si>
     <t>Instemming intrekken is niet mogelijk.</t>
   </si>
   <si>
     <t>Mogelijk om linkje te plaatsen in de bevestigingsmail en zo het koppel te leiden naar de juiste plek op utrecht.nl</t>
-  </si>
-  <si>
-    <t>Het is mogelijk om 'op de bank' meteen in te loggen, of een mailtje te versturen.</t>
-  </si>
-  <si>
-    <t>Getuigen uitnodigen via de mail.</t>
   </si>
 </sst>
 </file>
@@ -332,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +363,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -405,21 +426,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,7 +453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -737,20 +755,20 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -759,18 +777,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -781,19 +799,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>39</v>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
@@ -801,31 +819,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -834,9 +855,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -845,20 +866,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>77</v>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -866,8 +889,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -875,17 +898,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
@@ -893,69 +919,71 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>49</v>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>53</v>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
@@ -963,8 +991,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -972,17 +1000,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
@@ -990,9 +1021,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>29</v>
@@ -1001,100 +1032,103 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -1103,30 +1137,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>70</v>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>18</v>
